--- a/parameters/HDPT_Export.xlsx
+++ b/parameters/HDPT_Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoua\Documents\Solidworks Files\BILD Directory\LHRIC 2026 Season\26-DYN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F41EF59-9E45-47D3-93D0-F62373ECD157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D08313E-2323-468B-AA6E-B10D3D73E557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="3" xr2:uid="{5D48DADB-1A93-468D-B915-C9DD90D6CC32}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="10500" firstSheet="1" activeTab="3" xr2:uid="{5D48DADB-1A93-468D-B915-C9DD90D6CC32}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Ride Height Import" sheetId="7" r:id="rId1"/>
@@ -5791,13 +5791,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>637.2139892578125</v>
+        <v>637.03887939453125</v>
       </c>
       <c r="B2">
-        <v>254.32754516601563</v>
+        <v>253.57887268066406</v>
       </c>
       <c r="C2">
-        <v>238.19308471679688</v>
+        <v>243.18411254882813</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5876,13 +5876,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>859.03302001953125</v>
+        <v>859.1390380859375</v>
       </c>
       <c r="B4">
-        <v>236.43745422363281</v>
+        <v>236.89067077636719</v>
       </c>
       <c r="C4">
-        <v>251.494873046875</v>
+        <v>248.473388671875</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -5961,13 +5961,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>629.2022705078125</v>
+        <v>629.251220703125</v>
       </c>
       <c r="B6">
-        <v>227.17037963867188</v>
+        <v>227.09141540527344</v>
       </c>
       <c r="C6">
-        <v>113.74167633056641</v>
+        <v>116.08564758300781</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -6052,13 +6052,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>868.49359130859375</v>
+        <v>868.4639892578125</v>
       </c>
       <c r="B8">
-        <v>243.52635192871094</v>
+        <v>243.5740966796875</v>
       </c>
       <c r="C8">
-        <v>113.06121826171875</v>
+        <v>111.64393615722656</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -6099,13 +6099,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-749.15191650390625</v>
+        <v>-755.73699951171875</v>
       </c>
       <c r="B9">
-        <v>286.40628051757813</v>
+        <v>270.12136840820313</v>
       </c>
       <c r="C9">
-        <v>271.70086669921875</v>
+        <v>245.95954895019531</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -6190,13 +6190,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-536.9608154296875</v>
+        <v>-552.4603271484375</v>
       </c>
       <c r="B11">
-        <v>314.32748413085938</v>
+        <v>322.35525512695313</v>
       </c>
       <c r="C11">
-        <v>259.1771240234375</v>
+        <v>237.50428771972656</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -6237,13 +6237,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-722.8892822265625</v>
+        <v>-742.151611328125</v>
       </c>
       <c r="B12">
-        <v>214.99220275878906</v>
+        <v>214.52247619628906</v>
       </c>
       <c r="C12">
-        <v>129.77880859375</v>
+        <v>113.61971282958984</v>
       </c>
       <c r="D12">
         <v>17</v>
@@ -6328,13 +6328,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-511.9990234375</v>
+        <v>-522.99261474609375</v>
       </c>
       <c r="B14">
-        <v>233.80337524414063</v>
+        <v>262.12619018554688</v>
       </c>
       <c r="C14">
-        <v>130.78480529785156</v>
+        <v>112.15574645996094</v>
       </c>
       <c r="D14">
         <v>21</v>
@@ -6376,13 +6376,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>835</v>
+        <v>829.25</v>
       </c>
       <c r="B15">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="C15">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D15">
         <v>23</v>
@@ -6420,7 +6420,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="B16">
         <v>220.97999572753906</v>
@@ -6464,7 +6464,7 @@
         <v>-810</v>
       </c>
       <c r="B17">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="C17">
         <v>290</v>
@@ -6502,13 +6502,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-780</v>
+        <v>-775.09197998046875</v>
       </c>
       <c r="B18">
-        <v>285</v>
+        <v>265.14788818359375</v>
       </c>
       <c r="C18">
-        <v>270</v>
+        <v>246.76461791992188</v>
       </c>
       <c r="D18">
         <v>29</v>
@@ -6675,13 +6675,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>775.1956787109375</v>
+        <v>775.1846923828125</v>
       </c>
       <c r="B22">
-        <v>545.77044677734375</v>
+        <v>545.78399658203125</v>
       </c>
       <c r="C22">
-        <v>133.67971801757813</v>
+        <v>133.71331787109375</v>
       </c>
       <c r="D22">
         <v>37</v>
@@ -6976,13 +6976,13 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>-621.34588623046875</v>
+        <v>-627.34381103515625</v>
       </c>
       <c r="B29">
-        <v>351.54910278320313</v>
+        <v>348.951416015625</v>
       </c>
       <c r="C29">
-        <v>306.07437133789063</v>
+        <v>307.05874633789063</v>
       </c>
       <c r="D29">
         <v>49</v>
@@ -7017,13 +7017,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>-588.8270263671875</v>
+        <v>-610.383544921875</v>
       </c>
       <c r="B30">
-        <v>376.22653198242188</v>
+        <v>336.66744995117188</v>
       </c>
       <c r="C30">
-        <v>296.57443237304688</v>
+        <v>318.96343994140625</v>
       </c>
       <c r="D30">
         <v>77</v>
@@ -7058,13 +7058,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>-748.89300537109375</v>
+        <v>-749.24285888671875</v>
       </c>
       <c r="B31">
-        <v>565.64532470703125</v>
+        <v>564.55889892578125</v>
       </c>
       <c r="C31">
-        <v>136.35197448730469</v>
+        <v>137.02070617675781</v>
       </c>
       <c r="D31">
         <v>78</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>-420</v>
+        <v>-430</v>
       </c>
       <c r="B32">
         <v>335</v>
@@ -7178,13 +7178,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-658.24713134765625</v>
+        <v>-658.08404541015625</v>
       </c>
       <c r="B34">
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="C34">
-        <v>359.95516967773438</v>
+        <v>360.69058227539063</v>
       </c>
       <c r="D34">
         <v>85</v>
@@ -7219,13 +7219,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>-740.4677734375</v>
+        <v>-740.0631103515625</v>
       </c>
       <c r="B35">
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="C35">
-        <v>329.65298461914063</v>
+        <v>329.74087524414063</v>
       </c>
       <c r="D35">
         <v>87</v>
@@ -7262,13 +7262,13 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-743.07305908203125</v>
+        <v>-742.7647705078125</v>
       </c>
       <c r="B36">
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="C36">
-        <v>341.87844848632813</v>
+        <v>341.9454345703125</v>
       </c>
       <c r="D36">
         <v>89</v>
@@ -7305,13 +7305,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>-745.6783447265625</v>
+        <v>-745.4664306640625</v>
       </c>
       <c r="B37">
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="C37">
-        <v>354.10394287109375</v>
+        <v>354.14996337890625</v>
       </c>
       <c r="D37">
         <v>91</v>
@@ -7351,7 +7351,7 @@
         <v>-751.40997314453125</v>
       </c>
       <c r="B38">
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="C38">
         <v>381</v>
@@ -7390,13 +7390,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>771.25103759765625</v>
+        <v>771.25592041015625</v>
       </c>
       <c r="B39">
-        <v>527.25457763671875</v>
+        <v>527.27301025390625</v>
       </c>
       <c r="C39">
-        <v>298.84872436523438</v>
+        <v>298.93310546875</v>
       </c>
       <c r="D39">
         <v>95</v>
@@ -7807,13 +7807,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>-757.376953125</v>
+        <v>-757.79833984375</v>
       </c>
       <c r="B49">
-        <v>559.7042236328125</v>
+        <v>560.745361328125</v>
       </c>
       <c r="C49">
-        <v>280.10516357421875</v>
+        <v>277.89883422851563</v>
       </c>
       <c r="D49">
         <v>115</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>-420</v>
+        <v>-430</v>
       </c>
       <c r="B51">
         <v>335</v>
@@ -35457,15 +35457,15 @@
       </c>
       <c r="C9" s="198">
         <f>'1 Ride Height Import'!A4</f>
-        <v>859.03302001953125</v>
+        <v>859.1390380859375</v>
       </c>
       <c r="D9" s="190">
         <f>'1 Ride Height Import'!B4</f>
-        <v>236.43745422363281</v>
+        <v>236.89067077636719</v>
       </c>
       <c r="E9" s="186">
         <f>'1 Ride Height Import'!C4</f>
-        <v>251.494873046875</v>
+        <v>248.473388671875</v>
       </c>
       <c r="F9" s="101" t="s">
         <v>184</v>
@@ -35475,15 +35475,15 @@
       </c>
       <c r="I9" s="95">
         <f t="shared" ref="I9:I25" si="0">C9</f>
-        <v>859.03302001953125</v>
+        <v>859.1390380859375</v>
       </c>
       <c r="J9" s="95">
         <f t="shared" ref="J9:J25" si="1">-D9</f>
-        <v>-236.43745422363281</v>
+        <v>-236.89067077636719</v>
       </c>
       <c r="K9" s="95">
         <f t="shared" ref="K9:K25" si="2">E9</f>
-        <v>251.494873046875</v>
+        <v>248.473388671875</v>
       </c>
       <c r="L9" s="101" t="s">
         <v>184</v>
@@ -35495,15 +35495,15 @@
       </c>
       <c r="C10" s="190">
         <f>'1 Ride Height Import'!A6</f>
-        <v>629.2022705078125</v>
+        <v>629.251220703125</v>
       </c>
       <c r="D10" s="194">
         <f>'1 Ride Height Import'!B6</f>
-        <v>227.17037963867188</v>
+        <v>227.09141540527344</v>
       </c>
       <c r="E10" s="186">
         <f>'1 Ride Height Import'!C6</f>
-        <v>113.74167633056641</v>
+        <v>116.08564758300781</v>
       </c>
       <c r="F10" s="101" t="s">
         <v>187</v>
@@ -35513,15 +35513,15 @@
       </c>
       <c r="I10" s="95">
         <f t="shared" si="0"/>
-        <v>629.2022705078125</v>
+        <v>629.251220703125</v>
       </c>
       <c r="J10" s="95">
         <f t="shared" si="1"/>
-        <v>-227.17037963867188</v>
+        <v>-227.09141540527344</v>
       </c>
       <c r="K10" s="95">
         <f t="shared" si="2"/>
-        <v>113.74167633056641</v>
+        <v>116.08564758300781</v>
       </c>
       <c r="L10" s="101" t="s">
         <v>187</v>
@@ -35571,15 +35571,15 @@
       </c>
       <c r="C12" s="191">
         <f>'1 Ride Height Import'!A4</f>
-        <v>859.03302001953125</v>
+        <v>859.1390380859375</v>
       </c>
       <c r="D12" s="194">
         <f>'1 Ride Height Import'!B4</f>
-        <v>236.43745422363281</v>
+        <v>236.89067077636719</v>
       </c>
       <c r="E12" s="187">
         <f>'1 Ride Height Import'!C4</f>
-        <v>251.494873046875</v>
+        <v>248.473388671875</v>
       </c>
       <c r="F12" s="101" t="s">
         <v>193</v>
@@ -35589,15 +35589,15 @@
       </c>
       <c r="I12" s="95">
         <f t="shared" si="0"/>
-        <v>859.03302001953125</v>
+        <v>859.1390380859375</v>
       </c>
       <c r="J12" s="95">
         <f t="shared" si="1"/>
-        <v>-236.43745422363281</v>
+        <v>-236.89067077636719</v>
       </c>
       <c r="K12" s="95">
         <f t="shared" si="2"/>
-        <v>251.494873046875</v>
+        <v>248.473388671875</v>
       </c>
       <c r="L12" s="101" t="s">
         <v>193</v>
@@ -35609,15 +35609,15 @@
       </c>
       <c r="C13" s="191">
         <f>'1 Ride Height Import'!A2</f>
-        <v>637.2139892578125</v>
+        <v>637.03887939453125</v>
       </c>
       <c r="D13" s="195">
         <f>'1 Ride Height Import'!B2</f>
-        <v>254.32754516601563</v>
+        <v>253.57887268066406</v>
       </c>
       <c r="E13" s="188">
         <f>'1 Ride Height Import'!C2</f>
-        <v>238.19308471679688</v>
+        <v>243.18411254882813</v>
       </c>
       <c r="F13" s="101" t="s">
         <v>196</v>
@@ -35627,15 +35627,15 @@
       </c>
       <c r="I13" s="95">
         <f t="shared" si="0"/>
-        <v>637.2139892578125</v>
+        <v>637.03887939453125</v>
       </c>
       <c r="J13" s="95">
         <f t="shared" si="1"/>
-        <v>-254.32754516601563</v>
+        <v>-253.57887268066406</v>
       </c>
       <c r="K13" s="95">
         <f t="shared" si="2"/>
-        <v>238.19308471679688</v>
+        <v>243.18411254882813</v>
       </c>
       <c r="L13" s="101" t="s">
         <v>196</v>
@@ -35647,15 +35647,15 @@
       </c>
       <c r="C14" s="200">
         <f>'1 Ride Height Import'!A15</f>
-        <v>835</v>
+        <v>829.25</v>
       </c>
       <c r="D14" s="196">
         <f>'1 Ride Height Import'!B15</f>
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="E14" s="185">
         <f>'1 Ride Height Import'!C15</f>
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F14" s="102" t="s">
         <v>199</v>
@@ -35665,15 +35665,15 @@
       </c>
       <c r="I14" s="96">
         <f t="shared" si="0"/>
-        <v>835</v>
+        <v>829.25</v>
       </c>
       <c r="J14" s="96">
         <f t="shared" si="1"/>
-        <v>-530</v>
+        <v>-553</v>
       </c>
       <c r="K14" s="96">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L14" s="102" t="s">
         <v>199</v>
@@ -35685,7 +35685,7 @@
       </c>
       <c r="C15" s="201">
         <f>'1 Ride Height Import'!A16</f>
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="D15" s="197">
         <f>'1 Ride Height Import'!B16</f>
@@ -35703,7 +35703,7 @@
       </c>
       <c r="I15" s="96">
         <f t="shared" si="0"/>
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="J15" s="96">
         <f t="shared" si="1"/>
@@ -35863,15 +35863,15 @@
       </c>
       <c r="C18" s="112">
         <f>IF($D$3=1,N18,R18)</f>
-        <v>775.1956787109375</v>
+        <v>775.1846923828125</v>
       </c>
       <c r="D18" s="112">
         <f t="shared" ref="D18:E25" si="3">IF($D$3=1,O18,S18)</f>
-        <v>545.77044677734375</v>
+        <v>545.78399658203125</v>
       </c>
       <c r="E18" s="112">
         <f t="shared" si="3"/>
-        <v>133.67971801757813</v>
+        <v>133.71331787109375</v>
       </c>
       <c r="F18" s="113" t="s">
         <v>335</v>
@@ -35881,42 +35881,42 @@
       </c>
       <c r="I18" s="112">
         <f t="shared" si="0"/>
-        <v>775.1956787109375</v>
+        <v>775.1846923828125</v>
       </c>
       <c r="J18" s="112">
         <f t="shared" si="1"/>
-        <v>-545.77044677734375</v>
+        <v>-545.78399658203125</v>
       </c>
       <c r="K18" s="112">
         <f t="shared" si="2"/>
-        <v>133.67971801757813</v>
+        <v>133.71331787109375</v>
       </c>
       <c r="L18" s="113" t="s">
         <v>335</v>
       </c>
       <c r="N18" s="143">
         <f>'1 Ride Height Import'!A22</f>
-        <v>775.1956787109375</v>
+        <v>775.1846923828125</v>
       </c>
       <c r="O18" s="112">
         <f>'1 Ride Height Import'!B22</f>
-        <v>545.77044677734375</v>
+        <v>545.78399658203125</v>
       </c>
       <c r="P18" s="144">
         <f>'1 Ride Height Import'!C22</f>
-        <v>133.67971801757813</v>
+        <v>133.71331787109375</v>
       </c>
       <c r="R18" s="143">
         <f>'1 Ride Height Import'!A39</f>
-        <v>771.25103759765625</v>
+        <v>771.25592041015625</v>
       </c>
       <c r="S18" s="112">
         <f>'1 Ride Height Import'!B39</f>
-        <v>527.25457763671875</v>
+        <v>527.27301025390625</v>
       </c>
       <c r="T18" s="144">
         <f>'1 Ride Height Import'!C39</f>
-        <v>298.84872436523438</v>
+        <v>298.93310546875</v>
       </c>
       <c r="V18" s="170">
         <v>0</v>
@@ -36604,15 +36604,15 @@
       </c>
       <c r="C34" s="95">
         <f>'1 Ride Height Import'!A11</f>
-        <v>-536.9608154296875</v>
+        <v>-552.4603271484375</v>
       </c>
       <c r="D34" s="95">
         <f>'1 Ride Height Import'!B11</f>
-        <v>314.32748413085938</v>
+        <v>322.35525512695313</v>
       </c>
       <c r="E34" s="95">
         <f>'1 Ride Height Import'!C11</f>
-        <v>259.1771240234375</v>
+        <v>237.50428771972656</v>
       </c>
       <c r="F34" s="101" t="s">
         <v>184</v>
@@ -36622,15 +36622,15 @@
       </c>
       <c r="I34" s="95">
         <f t="shared" si="8"/>
-        <v>-536.9608154296875</v>
+        <v>-552.4603271484375</v>
       </c>
       <c r="J34" s="95">
         <f t="shared" ref="J34:J50" si="9">-D34</f>
-        <v>-314.32748413085938</v>
+        <v>-322.35525512695313</v>
       </c>
       <c r="K34" s="95">
         <f t="shared" ref="K34:K50" si="10">E34</f>
-        <v>259.1771240234375</v>
+        <v>237.50428771972656</v>
       </c>
       <c r="L34" s="101" t="s">
         <v>184</v>
@@ -36642,15 +36642,15 @@
       </c>
       <c r="C35" s="95">
         <f>'1 Ride Height Import'!A12</f>
-        <v>-722.8892822265625</v>
+        <v>-742.151611328125</v>
       </c>
       <c r="D35" s="95">
         <f>'1 Ride Height Import'!B12</f>
-        <v>214.99220275878906</v>
+        <v>214.52247619628906</v>
       </c>
       <c r="E35" s="95">
         <f>'1 Ride Height Import'!C12</f>
-        <v>129.77880859375</v>
+        <v>113.61971282958984</v>
       </c>
       <c r="F35" s="101" t="s">
         <v>187</v>
@@ -36660,15 +36660,15 @@
       </c>
       <c r="I35" s="95">
         <f t="shared" si="8"/>
-        <v>-722.8892822265625</v>
+        <v>-742.151611328125</v>
       </c>
       <c r="J35" s="95">
         <f t="shared" si="9"/>
-        <v>-214.99220275878906</v>
+        <v>-214.52247619628906</v>
       </c>
       <c r="K35" s="95">
         <f t="shared" si="10"/>
-        <v>129.77880859375</v>
+        <v>113.61971282958984</v>
       </c>
       <c r="L35" s="101" t="s">
         <v>187</v>
@@ -36718,15 +36718,15 @@
       </c>
       <c r="C37" s="95">
         <f>'1 Ride Height Import'!A11</f>
-        <v>-536.9608154296875</v>
+        <v>-552.4603271484375</v>
       </c>
       <c r="D37" s="95">
         <f>'1 Ride Height Import'!B11</f>
-        <v>314.32748413085938</v>
+        <v>322.35525512695313</v>
       </c>
       <c r="E37" s="95">
         <f>'1 Ride Height Import'!C11</f>
-        <v>259.1771240234375</v>
+        <v>237.50428771972656</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>193</v>
@@ -36736,15 +36736,15 @@
       </c>
       <c r="I37" s="95">
         <f t="shared" si="8"/>
-        <v>-536.9608154296875</v>
+        <v>-552.4603271484375</v>
       </c>
       <c r="J37" s="95">
         <f t="shared" si="9"/>
-        <v>-314.32748413085938</v>
+        <v>-322.35525512695313</v>
       </c>
       <c r="K37" s="95">
         <f t="shared" si="10"/>
-        <v>259.1771240234375</v>
+        <v>237.50428771972656</v>
       </c>
       <c r="L37" s="101" t="s">
         <v>193</v>
@@ -36756,15 +36756,15 @@
       </c>
       <c r="C38" s="95">
         <f>'1 Ride Height Import'!A9</f>
-        <v>-749.15191650390625</v>
+        <v>-755.73699951171875</v>
       </c>
       <c r="D38" s="95">
         <f>'1 Ride Height Import'!B9</f>
-        <v>286.40628051757813</v>
+        <v>270.12136840820313</v>
       </c>
       <c r="E38" s="95">
         <f>'1 Ride Height Import'!C9</f>
-        <v>271.70086669921875</v>
+        <v>245.95954895019531</v>
       </c>
       <c r="F38" s="101" t="s">
         <v>196</v>
@@ -36774,15 +36774,15 @@
       </c>
       <c r="I38" s="95">
         <f t="shared" si="8"/>
-        <v>-749.15191650390625</v>
+        <v>-755.73699951171875</v>
       </c>
       <c r="J38" s="95">
         <f t="shared" si="9"/>
-        <v>-286.40628051757813</v>
+        <v>-270.12136840820313</v>
       </c>
       <c r="K38" s="95">
         <f t="shared" si="10"/>
-        <v>271.70086669921875</v>
+        <v>245.95954895019531</v>
       </c>
       <c r="L38" s="101" t="s">
         <v>196</v>
@@ -36798,7 +36798,7 @@
       </c>
       <c r="D39" s="96">
         <f>'1 Ride Height Import'!B17</f>
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="E39" s="96">
         <f>'1 Ride Height Import'!C17</f>
@@ -36816,7 +36816,7 @@
       </c>
       <c r="J39" s="96">
         <f t="shared" si="9"/>
-        <v>-570</v>
+        <v>-585</v>
       </c>
       <c r="K39" s="96">
         <f t="shared" si="10"/>
@@ -36832,15 +36832,15 @@
       </c>
       <c r="C40" s="96">
         <f>'1 Ride Height Import'!A18</f>
-        <v>-780</v>
+        <v>-775.09197998046875</v>
       </c>
       <c r="D40" s="96">
         <f>'1 Ride Height Import'!B18</f>
-        <v>285</v>
+        <v>265.14788818359375</v>
       </c>
       <c r="E40" s="96">
         <f>'1 Ride Height Import'!C18</f>
-        <v>270</v>
+        <v>246.76461791992188</v>
       </c>
       <c r="F40" s="102" t="s">
         <v>202</v>
@@ -36850,15 +36850,15 @@
       </c>
       <c r="I40" s="96">
         <f t="shared" si="8"/>
-        <v>-780</v>
+        <v>-775.09197998046875</v>
       </c>
       <c r="J40" s="96">
         <f t="shared" si="9"/>
-        <v>-285</v>
+        <v>-265.14788818359375</v>
       </c>
       <c r="K40" s="96">
         <f t="shared" si="10"/>
-        <v>270</v>
+        <v>246.76461791992188</v>
       </c>
       <c r="L40" s="102" t="s">
         <v>202</v>
@@ -37010,15 +37010,15 @@
       </c>
       <c r="C43" s="112">
         <f>IF($D$28=1,N43,R43)</f>
-        <v>-748.89300537109375</v>
+        <v>-749.24285888671875</v>
       </c>
       <c r="D43" s="112">
         <f t="shared" ref="D43:E50" si="11">IF($D$28=1,O43,S43)</f>
-        <v>565.64532470703125</v>
+        <v>564.55889892578125</v>
       </c>
       <c r="E43" s="112">
         <f t="shared" si="11"/>
-        <v>136.35197448730469</v>
+        <v>137.02070617675781</v>
       </c>
       <c r="F43" s="113" t="s">
         <v>335</v>
@@ -37028,57 +37028,57 @@
       </c>
       <c r="I43" s="112">
         <f t="shared" si="8"/>
-        <v>-748.89300537109375</v>
+        <v>-749.24285888671875</v>
       </c>
       <c r="J43" s="112">
         <f t="shared" si="9"/>
-        <v>-565.64532470703125</v>
+        <v>-564.55889892578125</v>
       </c>
       <c r="K43" s="112">
         <f t="shared" si="10"/>
-        <v>136.35197448730469</v>
+        <v>137.02070617675781</v>
       </c>
       <c r="L43" s="113" t="s">
         <v>335</v>
       </c>
       <c r="N43" s="143">
         <f>'1 Ride Height Import'!A31</f>
-        <v>-748.89300537109375</v>
+        <v>-749.24285888671875</v>
       </c>
       <c r="O43" s="112">
         <f>'1 Ride Height Import'!B31</f>
-        <v>565.64532470703125</v>
+        <v>564.55889892578125</v>
       </c>
       <c r="P43" s="144">
         <f>'1 Ride Height Import'!C31</f>
-        <v>136.35197448730469</v>
+        <v>137.02070617675781</v>
       </c>
       <c r="R43" s="143">
         <f>'1 Ride Height Import'!A49</f>
-        <v>-757.376953125</v>
+        <v>-757.79833984375</v>
       </c>
       <c r="S43" s="112">
         <f>'1 Ride Height Import'!B49</f>
-        <v>559.7042236328125</v>
+        <v>560.745361328125</v>
       </c>
       <c r="T43" s="144">
         <f>'1 Ride Height Import'!C49</f>
-        <v>280.10516357421875</v>
+        <v>277.89883422851563</v>
       </c>
       <c r="V43" s="170">
         <v>0</v>
       </c>
       <c r="W43" s="153">
         <f>'1 Ride Height Import'!A35</f>
-        <v>-740.4677734375</v>
+        <v>-740.0631103515625</v>
       </c>
       <c r="X43" s="118">
         <f>'1 Ride Height Import'!B35</f>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="Y43" s="154">
         <f>'1 Ride Height Import'!C35</f>
-        <v>329.65298461914063</v>
+        <v>329.74087524414063</v>
       </c>
       <c r="AA43" s="170">
         <v>0</v>
@@ -37102,15 +37102,15 @@
       </c>
       <c r="C44" s="98">
         <f t="shared" ref="C44:C50" si="12">IF($D$28=1,N44,R44)</f>
-        <v>-621.34588623046875</v>
+        <v>-627.34381103515625</v>
       </c>
       <c r="D44" s="98">
         <f t="shared" si="11"/>
-        <v>351.54910278320313</v>
+        <v>348.951416015625</v>
       </c>
       <c r="E44" s="98">
         <f t="shared" si="11"/>
-        <v>306.07437133789063</v>
+        <v>307.05874633789063</v>
       </c>
       <c r="F44" s="104" t="s">
         <v>336</v>
@@ -37120,30 +37120,30 @@
       </c>
       <c r="I44" s="98">
         <f t="shared" si="8"/>
-        <v>-621.34588623046875</v>
+        <v>-627.34381103515625</v>
       </c>
       <c r="J44" s="98">
         <f t="shared" si="9"/>
-        <v>-351.54910278320313</v>
+        <v>-348.951416015625</v>
       </c>
       <c r="K44" s="98">
         <f t="shared" si="10"/>
-        <v>306.07437133789063</v>
+        <v>307.05874633789063</v>
       </c>
       <c r="L44" s="104" t="s">
         <v>336</v>
       </c>
       <c r="N44" s="145">
         <f>'1 Ride Height Import'!A29</f>
-        <v>-621.34588623046875</v>
+        <v>-627.34381103515625</v>
       </c>
       <c r="O44" s="98">
         <f>'1 Ride Height Import'!B29</f>
-        <v>351.54910278320313</v>
+        <v>348.951416015625</v>
       </c>
       <c r="P44" s="146">
         <f>'1 Ride Height Import'!C29</f>
-        <v>306.07437133789063</v>
+        <v>307.05874633789063</v>
       </c>
       <c r="R44" s="145">
         <f>'1 Ride Height Import'!A50</f>
@@ -37162,15 +37162,15 @@
       </c>
       <c r="W44" s="155">
         <f>'1 Ride Height Import'!A36</f>
-        <v>-743.07305908203125</v>
+        <v>-742.7647705078125</v>
       </c>
       <c r="X44" s="119">
         <f>'1 Ride Height Import'!B36</f>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="Y44" s="156">
         <f>'1 Ride Height Import'!C36</f>
-        <v>341.87844848632813</v>
+        <v>341.9454345703125</v>
       </c>
       <c r="AA44" s="171">
         <v>1</v>
@@ -37254,15 +37254,15 @@
       </c>
       <c r="W45" s="157">
         <f>'1 Ride Height Import'!A37</f>
-        <v>-745.6783447265625</v>
+        <v>-745.4664306640625</v>
       </c>
       <c r="X45" s="120">
         <f>'1 Ride Height Import'!B37</f>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="Y45" s="158">
         <f>'1 Ride Height Import'!C37</f>
-        <v>354.10394287109375</v>
+        <v>354.14996337890625</v>
       </c>
       <c r="AA45" s="163">
         <v>2</v>
@@ -37286,15 +37286,15 @@
       </c>
       <c r="C46" s="100">
         <f t="shared" si="12"/>
-        <v>-588.8270263671875</v>
+        <v>-610.383544921875</v>
       </c>
       <c r="D46" s="100">
         <f t="shared" si="11"/>
-        <v>376.22653198242188</v>
+        <v>336.66744995117188</v>
       </c>
       <c r="E46" s="100">
         <f t="shared" si="11"/>
-        <v>296.57443237304688</v>
+        <v>318.96343994140625</v>
       </c>
       <c r="F46" s="106" t="s">
         <v>218</v>
@@ -37304,30 +37304,30 @@
       </c>
       <c r="I46" s="100">
         <f t="shared" si="8"/>
-        <v>-588.8270263671875</v>
+        <v>-610.383544921875</v>
       </c>
       <c r="J46" s="100">
         <f t="shared" si="9"/>
-        <v>-376.22653198242188</v>
+        <v>-336.66744995117188</v>
       </c>
       <c r="K46" s="100">
         <f t="shared" si="10"/>
-        <v>296.57443237304688</v>
+        <v>318.96343994140625</v>
       </c>
       <c r="L46" s="106" t="s">
         <v>218</v>
       </c>
       <c r="N46" s="149">
         <f>'1 Ride Height Import'!A30</f>
-        <v>-588.8270263671875</v>
+        <v>-610.383544921875</v>
       </c>
       <c r="O46" s="100">
         <f>'1 Ride Height Import'!B30</f>
-        <v>376.22653198242188</v>
+        <v>336.66744995117188</v>
       </c>
       <c r="P46" s="150">
         <f>'1 Ride Height Import'!C30</f>
-        <v>296.57443237304688</v>
+        <v>318.96343994140625</v>
       </c>
       <c r="R46" s="149">
         <f>'1 Ride Height Import'!A52</f>
@@ -37346,15 +37346,15 @@
       </c>
       <c r="W46" s="157">
         <f>IF($D$29=$V$43,W43,                                                                                                                                                                                                                                                               IF($D$29=$V$44,W44,W45))</f>
-        <v>-743.07305908203125</v>
+        <v>-742.7647705078125</v>
       </c>
       <c r="X46" s="120">
         <f t="shared" ref="X46:Y46" si="13">IF($D$29=$V$43,X43,                                                                                                                                                                                                                                                               IF($D$29=$V$44,X44,X45))</f>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="Y46" s="158">
         <f t="shared" si="13"/>
-        <v>341.87844848632813</v>
+        <v>341.9454345703125</v>
       </c>
       <c r="AA46" s="163" t="s">
         <v>332</v>
@@ -37378,7 +37378,7 @@
       </c>
       <c r="C47" s="116">
         <f t="shared" si="12"/>
-        <v>-420</v>
+        <v>-430</v>
       </c>
       <c r="D47" s="116">
         <f t="shared" si="11"/>
@@ -37396,7 +37396,7 @@
       </c>
       <c r="I47" s="116">
         <f t="shared" si="8"/>
-        <v>-420</v>
+        <v>-430</v>
       </c>
       <c r="J47" s="116">
         <f t="shared" si="9"/>
@@ -37411,7 +37411,7 @@
       </c>
       <c r="N47" s="151">
         <f>'1 Ride Height Import'!A32</f>
-        <v>-420</v>
+        <v>-430</v>
       </c>
       <c r="O47" s="116">
         <f>'1 Ride Height Import'!B32</f>
@@ -37423,7 +37423,7 @@
       </c>
       <c r="R47" s="151">
         <f>'1 Ride Height Import'!A51</f>
-        <v>-420</v>
+        <v>-430</v>
       </c>
       <c r="S47" s="116">
         <f>'1 Ride Height Import'!B51</f>
@@ -37440,15 +37440,15 @@
       </c>
       <c r="C48" s="118">
         <f t="shared" si="12"/>
-        <v>-658.24713134765625</v>
+        <v>-658.08404541015625</v>
       </c>
       <c r="D48" s="118">
         <f t="shared" si="11"/>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="E48" s="118">
         <f t="shared" si="11"/>
-        <v>359.95516967773438</v>
+        <v>360.69058227539063</v>
       </c>
       <c r="F48" s="133" t="s">
         <v>327</v>
@@ -37458,30 +37458,30 @@
       </c>
       <c r="I48" s="118">
         <f t="shared" si="8"/>
-        <v>-658.24713134765625</v>
+        <v>-658.08404541015625</v>
       </c>
       <c r="J48" s="118">
         <f t="shared" si="9"/>
-        <v>-258.80929565429688</v>
+        <v>-257.86297607421875</v>
       </c>
       <c r="K48" s="118">
         <f t="shared" si="10"/>
-        <v>359.95516967773438</v>
+        <v>360.69058227539063</v>
       </c>
       <c r="L48" s="133" t="s">
         <v>327</v>
       </c>
       <c r="N48" s="155">
         <f>'1 Ride Height Import'!A34</f>
-        <v>-658.24713134765625</v>
+        <v>-658.08404541015625</v>
       </c>
       <c r="O48" s="119">
         <f>'1 Ride Height Import'!B34</f>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="P48" s="156">
         <f>'1 Ride Height Import'!C34</f>
-        <v>359.95516967773438</v>
+        <v>360.69058227539063</v>
       </c>
       <c r="R48" s="155">
         <f>'1 Ride Height Import'!A54</f>
@@ -37502,15 +37502,15 @@
       </c>
       <c r="C49" s="119">
         <f t="shared" si="12"/>
-        <v>-743.07305908203125</v>
+        <v>-742.7647705078125</v>
       </c>
       <c r="D49" s="119">
         <f t="shared" si="11"/>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="E49" s="119">
         <f t="shared" si="11"/>
-        <v>341.87844848632813</v>
+        <v>341.9454345703125</v>
       </c>
       <c r="F49" s="136" t="s">
         <v>328</v>
@@ -37520,30 +37520,30 @@
       </c>
       <c r="I49" s="119">
         <f t="shared" si="8"/>
-        <v>-743.07305908203125</v>
+        <v>-742.7647705078125</v>
       </c>
       <c r="J49" s="119">
         <f t="shared" si="9"/>
-        <v>-258.80929565429688</v>
+        <v>-257.86297607421875</v>
       </c>
       <c r="K49" s="119">
         <f t="shared" si="10"/>
-        <v>341.87844848632813</v>
+        <v>341.9454345703125</v>
       </c>
       <c r="L49" s="136" t="s">
         <v>328</v>
       </c>
       <c r="N49" s="167">
         <f>W46</f>
-        <v>-743.07305908203125</v>
+        <v>-742.7647705078125</v>
       </c>
       <c r="O49" s="168">
         <f t="shared" ref="O49:P49" si="15">X46</f>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="P49" s="169">
         <f t="shared" si="15"/>
-        <v>341.87844848632813</v>
+        <v>341.9454345703125</v>
       </c>
       <c r="R49" s="167">
         <f>AB46</f>
@@ -37568,7 +37568,7 @@
       </c>
       <c r="D50" s="120">
         <f t="shared" si="11"/>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="E50" s="120">
         <f t="shared" si="11"/>
@@ -37586,7 +37586,7 @@
       </c>
       <c r="J50" s="120">
         <f t="shared" si="9"/>
-        <v>-258.80929565429688</v>
+        <v>-257.86297607421875</v>
       </c>
       <c r="K50" s="120">
         <f t="shared" si="10"/>
@@ -37601,7 +37601,7 @@
       </c>
       <c r="O50" s="165">
         <f>'1 Ride Height Import'!B38</f>
-        <v>258.80929565429688</v>
+        <v>257.86297607421875</v>
       </c>
       <c r="P50" s="166">
         <f>'1 Ride Height Import'!C38</f>
